--- a/biology/Zoologie/Collisella/Collisella.xlsx
+++ b/biology/Zoologie/Collisella/Collisella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Collisella est un genre de mollusques primitifs de la classe des gastéropodes.
 Ce genre est parfois classé par certains auteurs dans la famille des Acmaeidae.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon World Register of Marine Species                               (24 juil. 2011)[2]
-Collisella abrolhosensis (Petuch, 1979)
+          <t>Selon World Register of Marine Species                               (24 juil. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Collisella abrolhosensis (Petuch, 1979)
 Collisella acutapex (Berry, 1960)
 Collisella discors (Philippi, 1849)
 Collisella edmitchelli (Lipps, 1963)
@@ -527,9 +544,43 @@
 Collisella strongiana (Hertlein, 1958)
 Collisella subrugosa (d'Orbigny, 1846)
 Collisella tessulata (O. F. Müller, 1776)
-Collisella turveri (Hertlein &amp; Strong, 1951)
-Selon Gastropods.com[3]
- Collisella acutapex Berry, S.S., 1960
+Collisella turveri (Hertlein &amp; Strong, 1951)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Collisella</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Collisella</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon Gastropods.com[3]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Collisella acutapex Berry, S.S., 1960
 Collisella adami Christiaens, J., 1975
 Collisella atrata Carpenter, P.P., 1857
 Collisella borneensis
@@ -543,8 +594,8 @@
 Collisella mortoni  Christiaens, J., 1980
 Collisella pallidula Gould, A.A., 1859
 Collisella ruginosa Ramírez-Boehme, 1974
- Collisella scabra[4]
-Collisella subrugosa (Orbigny, 1846)[5]
+ Collisella scabra
+Collisella subrugosa (Orbigny, 1846)
 Collisella tessulata (O. F. Müller, 1776)
 Collisella triangularis (Carpenter, P.P., 1864)
 Collisella triangularis f. orcutti  Pilsbry, H.A., 1891
